--- a/1.정보공개청구/3. 기능확장_이름 마스킹/1.cleaned_data_colab.xlsx
+++ b/1.정보공개청구/3. 기능확장_이름 마스킹/1.cleaned_data_colab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\excel\1.정보공개청구\3. 기능확장_이름 마스킹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FFA34D-2EE9-45D6-B870-E355EAB5E061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D834C01-4134-46DE-A73F-34F265CFDD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10912" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10912" uniqueCount="1297">
   <si>
     <t>순번</t>
   </si>
@@ -3958,6 +3958,14 @@
   </si>
   <si>
     <t>차은우</t>
+  </si>
+  <si>
+    <t>차은우다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4333,7 +4341,7 @@
   <dimension ref="A1:V496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4417,7 +4425,7 @@
         <v>1293</v>
       </c>
       <c r="D2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -4485,7 +4493,7 @@
         <v>1293</v>
       </c>
       <c r="D3" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
